--- a/SoftUni/ConditionalStatements/ConditionalStatements/src/ConditionalStatements/SubsetSumSimulation.xlsx
+++ b/SoftUni/ConditionalStatements/ConditionalStatements/src/ConditionalStatements/SubsetSumSimulation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ttittoIT\GitHub\Java\trunk\SoftUni\ConditionalStatements\ConditionalStatements\src\ConditionalStatements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ttittoIT\Java\trunk\SoftUni\ConditionalStatements\ConditionalStatements\src\ConditionalStatements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -608,6 +608,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>